--- a/biology/Zoologie/Crowsoniella_relicta/Crowsoniella_relicta.xlsx
+++ b/biology/Zoologie/Crowsoniella_relicta/Crowsoniella_relicta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crowsoniella relicta est une espèce d'insectes de l'ordre des Coléoptères, de la famille des Crowsoniellidae, du genre Crowsoniella. C'est la seule connue de la famille de Crowsoniellidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle n'a été aperçue qu'en Italie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle n'a été aperçue qu'en Italie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pace, 1975 : An exceptional endogeous beetle: Crowsoniella relicta n. gen. n. sp. of Archostemata Tetraphaleridae from central Italy (XVI. Contribution to knowledge of endogeous beetles). Bollettino del Museo Civico di Storia Naturale di Verona botanica zoologia, vol. 2, pp. 445–458.</t>
         </is>
